--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\FILE_RWID\PyCharmProjects\python-fundamental\Weather-Data-Server-Scrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEABBB25-9B89-4E4A-9B77-6505120ABAAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2E8DC5-4021-4633-838D-A21F9126499F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>AWS Jawa Maraja Bah Jambi</t>
+  </si>
+  <si>
+    <t>NR</t>
   </si>
 </sst>
 </file>
@@ -678,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1123,9 @@
       <c r="D25" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="F25" s="5" t="s">
         <v>8</v>
       </c>
